--- a/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
+++ b/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T14:22:16+00:00</t>
+    <t>2024-12-18T14:23:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -659,884 +659,884 @@
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
   </si>
   <si>
+    <t>Observation.extension:MesReasonForMeasurement</t>
+  </si>
+  <si>
+    <t>MesReasonForMeasurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-reason-for-measurement}
+</t>
+  </si>
+  <si>
+    <t>Motif de la mesure</t>
+  </si>
+  <si>
+    <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
+  </si>
+  <si>
+    <t>Observation.extension:MesMomentOfMeasurement</t>
+  </si>
+  <si>
+    <t>MesMomentOfMeasurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-moment-of-measurement}
+</t>
+  </si>
+  <si>
+    <t>Moment de la mesure</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.text</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>Blood Pressure.</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
+  </si>
+  <si>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
+  </si>
+  <si>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode</t>
+  </si>
+  <si>
+    <t>BPCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>85354-9</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BPCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-2</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J149-BodySiteBP-ENS/FHIR/JDV-J149-BodySiteBP-ENS</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>Observation.extension:MesReasonForMeasurement</t>
-  </si>
-  <si>
-    <t>MesReasonForMeasurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-reason-for-measurement}
-</t>
-  </si>
-  <si>
-    <t>Motif de la mesure</t>
-  </si>
-  <si>
-    <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
-  </si>
-  <si>
-    <t>Observation.extension:MesMomentOfMeasurement</t>
-  </si>
-  <si>
-    <t>MesMomentOfMeasurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-moment-of-measurement}
-</t>
-  </si>
-  <si>
-    <t>Moment de la mesure</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>vital-signs</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.text</t>
-  </si>
-  <si>
-    <t>Observation.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test</t>
-  </si>
-  <si>
-    <t>Blood Pressure</t>
-  </si>
-  <si>
-    <t>Blood Pressure.</t>
-  </si>
-  <si>
-    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
-  </si>
-  <si>
-    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
-  </si>
-  <si>
-    <t>This identifies the vital sign result type.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode</t>
-  </si>
-  <si>
-    <t>BPCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>85354-9</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BPCode.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Often just a dateTime for Vital Signs</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vs-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CareTeam|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>obs-7
-vs-2</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>obs-6
-vs-2</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J149-BodySiteBP-ENS/FHIR/JDV-J149-BodySiteBP-ENS</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
@@ -5052,7 +5052,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>122</v>
@@ -5078,13 +5078,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>197</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>82</v>
@@ -5106,13 +5106,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5198,13 +5198,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>197</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
@@ -5226,13 +5226,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5318,10 +5318,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5347,16 +5347,16 @@
         <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5405,7 +5405,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5440,10 +5440,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5466,17 +5466,17 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5525,7 +5525,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5540,19 +5540,19 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5560,14 +5560,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5586,17 +5586,17 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5645,7 +5645,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5660,16 +5660,16 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5680,14 +5680,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5706,16 +5706,16 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5765,7 +5765,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5780,16 +5780,16 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5829,16 +5829,16 @@
         <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5863,11 +5863,11 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5885,7 +5885,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>93</v>
@@ -5900,19 +5900,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5946,19 +5946,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5986,16 +5986,16 @@
         <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
@@ -6005,7 +6005,7 @@
         <v>120</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -6029,10 +6029,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -6040,13 +6040,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -6068,19 +6068,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -6108,11 +6108,11 @@
         <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -6153,10 +6153,10 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -6164,10 +6164,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6402,10 +6402,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6431,16 +6431,16 @@
         <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6489,7 +6489,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6510,10 +6510,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6642,10 +6642,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6762,10 +6762,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6791,65 +6791,65 @@
         <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6870,10 +6870,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6913,13 +6913,13 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6969,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6990,10 +6990,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7033,63 +7033,63 @@
         <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -7110,10 +7110,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7153,14 +7153,14 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -7170,7 +7170,7 @@
         <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>82</v>
@@ -7209,7 +7209,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7230,10 +7230,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7244,10 +7244,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7270,19 +7270,19 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7331,7 +7331,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7352,10 +7352,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7395,16 +7395,16 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7453,7 +7453,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7474,10 +7474,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7488,14 +7488,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7514,19 +7514,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7554,11 +7554,11 @@
         <v>155</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>93</v>
@@ -7590,30 +7590,30 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7728,10 +7728,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7848,10 +7848,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7877,16 +7877,16 @@
         <v>151</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
@@ -7933,7 +7933,7 @@
         <v>120</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7954,10 +7954,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7968,13 +7968,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7999,16 +7999,16 @@
         <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -8057,7 +8057,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -8078,10 +8078,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8210,10 +8210,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8330,10 +8330,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8359,23 +8359,23 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>82</v>
@@ -8417,7 +8417,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8438,10 +8438,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8452,10 +8452,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8481,13 +8481,13 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8537,7 +8537,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8558,10 +8558,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8572,10 +8572,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8601,21 +8601,21 @@
         <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>82</v>
@@ -8657,7 +8657,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8678,10 +8678,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8721,14 +8721,14 @@
         <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8777,7 +8777,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8798,10 +8798,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8838,19 +8838,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8899,7 +8899,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8920,10 +8920,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8934,10 +8934,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8963,16 +8963,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -9021,7 +9021,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -9042,10 +9042,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -9056,10 +9056,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9082,19 +9082,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -9143,7 +9143,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9158,19 +9158,19 @@
         <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -9178,10 +9178,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9204,16 +9204,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9263,7 +9263,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9284,13 +9284,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -9298,14 +9298,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9324,19 +9324,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9385,7 +9385,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9400,19 +9400,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9420,14 +9420,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9446,19 +9446,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9507,7 +9507,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9516,25 +9516,25 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9571,13 +9571,13 @@
         <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9627,7 +9627,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9648,13 +9648,13 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9688,17 +9688,17 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9747,7 +9747,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9762,19 +9762,19 @@
         <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9782,10 +9782,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9808,19 +9808,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9857,26 +9857,26 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9885,30 +9885,30 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9930,19 +9930,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9991,7 +9991,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -10000,7 +10000,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -10009,27 +10009,27 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10052,19 +10052,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -10092,37 +10092,37 @@
         <v>155</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -10137,7 +10137,7 @@
         <v>196</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -10148,14 +10148,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -10174,19 +10174,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -10233,7 +10233,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10251,27 +10251,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10294,19 +10294,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10355,7 +10355,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10376,10 +10376,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10390,10 +10390,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10416,16 +10416,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10451,13 +10451,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10475,7 +10475,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10493,27 +10493,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10628,10 +10628,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10722,7 +10722,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>122</v>
@@ -10777,16 +10777,16 @@
         <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10835,7 +10835,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10844,7 +10844,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10856,10 +10856,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -11082,7 +11082,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>122</v>
@@ -11137,16 +11137,16 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -11195,7 +11195,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11204,7 +11204,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -11216,10 +11216,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11259,13 +11259,13 @@
         <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11315,7 +11315,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11324,7 +11324,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11336,10 +11336,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11379,16 +11379,16 @@
         <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11437,7 +11437,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11446,7 +11446,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11458,10 +11458,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11501,16 +11501,16 @@
         <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11559,7 +11559,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11568,7 +11568,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11580,10 +11580,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11620,19 +11620,19 @@
         <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11681,7 +11681,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11690,7 +11690,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11702,10 +11702,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11745,16 +11745,16 @@
         <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11803,7 +11803,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11812,7 +11812,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11824,10 +11824,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11864,7 +11864,7 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>500</v>
@@ -12596,7 +12596,7 @@
         <v>117</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12942,7 +12942,7 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>553</v>
@@ -13027,7 +13027,7 @@
         <v>560</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -13064,7 +13064,7 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>562</v>
@@ -13149,7 +13149,7 @@
         <v>560</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -14034,7 +14034,7 @@
         <v>117</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -14144,7 +14144,7 @@
         <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>604</v>
@@ -14184,10 +14184,10 @@
         <v>155</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -14226,13 +14226,13 @@
         <v>608</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>82</v>
@@ -14278,7 +14278,7 @@
         <v>613</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -14303,7 +14303,7 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="Y96" t="s" s="2">
         <v>614</v>
@@ -14348,16 +14348,16 @@
         <v>617</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -14388,7 +14388,7 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>619</v>
@@ -14400,7 +14400,7 @@
         <v>621</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14428,10 +14428,10 @@
         <v>155</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14473,7 +14473,7 @@
         <v>196</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14510,19 +14510,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14553,7 +14553,7 @@
         <v>624</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14589,19 +14589,19 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN98" t="s" s="2">
+      <c r="AO98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP98" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="99" hidden="true">
@@ -15128,7 +15128,7 @@
         <v>117</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15238,7 +15238,7 @@
         <v>94</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>604</v>
@@ -15247,7 +15247,7 @@
         <v>605</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>607</v>
@@ -15278,10 +15278,10 @@
         <v>155</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15320,13 +15320,13 @@
         <v>608</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15607,10 +15607,10 @@
         <v>642</v>
       </c>
       <c r="N107" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O107" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15647,7 +15647,7 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC107" s="2"/>
       <c r="AD107" t="s" s="2">
@@ -15657,7 +15657,7 @@
         <v>120</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15678,10 +15678,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15729,10 +15729,10 @@
         <v>642</v>
       </c>
       <c r="N108" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15781,7 +15781,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15802,10 +15802,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -16083,23 +16083,23 @@
         <v>135</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>82</v>
@@ -16141,7 +16141,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16162,10 +16162,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16205,13 +16205,13 @@
         <v>107</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16261,7 +16261,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16282,10 +16282,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16325,14 +16325,14 @@
         <v>173</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16381,7 +16381,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16402,10 +16402,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16445,14 +16445,14 @@
         <v>107</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16501,7 +16501,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16522,10 +16522,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16562,19 +16562,19 @@
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16623,7 +16623,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16644,10 +16644,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16687,16 +16687,16 @@
         <v>107</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16745,7 +16745,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16766,10 +16766,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN116" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16806,7 +16806,7 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>611</v>
@@ -16818,7 +16818,7 @@
         <v>613</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16843,7 +16843,7 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="Y117" t="s" s="2">
         <v>614</v>
@@ -16855,7 +16855,7 @@
         <v>82</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC117" s="2"/>
       <c r="AD117" t="s" s="2">
@@ -16886,16 +16886,16 @@
         <v>617</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="118" hidden="true">
@@ -17323,7 +17323,7 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y121" t="s" s="2">
         <v>683</v>
@@ -17770,7 +17770,7 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>619</v>
@@ -17782,7 +17782,7 @@
         <v>621</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17810,10 +17810,10 @@
         <v>155</v>
       </c>
       <c r="Y125" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z125" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>82</v>
@@ -17855,7 +17855,7 @@
         <v>196</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -17892,19 +17892,19 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17935,7 +17935,7 @@
         <v>624</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17971,19 +17971,19 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM126" t="s" s="2">
+      <c r="AN126" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN126" t="s" s="2">
+      <c r="AO126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP126" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="127" hidden="true">
@@ -18510,7 +18510,7 @@
         <v>117</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18620,7 +18620,7 @@
         <v>94</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>604</v>
@@ -18629,7 +18629,7 @@
         <v>605</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>607</v>
@@ -18660,10 +18660,10 @@
         <v>155</v>
       </c>
       <c r="Y132" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z132" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18702,13 +18702,13 @@
         <v>608</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN132" t="s" s="2">
+      <c r="AO132" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP132" t="s" s="2">
         <v>82</v>
@@ -18989,10 +18989,10 @@
         <v>727</v>
       </c>
       <c r="N135" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19029,7 +19029,7 @@
         <v>82</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC135" s="2"/>
       <c r="AD135" t="s" s="2">
@@ -19039,7 +19039,7 @@
         <v>120</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19060,10 +19060,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -19111,10 +19111,10 @@
         <v>727</v>
       </c>
       <c r="N136" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O136" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19163,7 +19163,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19184,10 +19184,10 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN136" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19465,23 +19465,23 @@
         <v>135</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>82</v>
@@ -19523,7 +19523,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19544,10 +19544,10 @@
         <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19587,13 +19587,13 @@
         <v>107</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19643,7 +19643,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19664,10 +19664,10 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN140" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19707,14 +19707,14 @@
         <v>173</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19763,7 +19763,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19784,10 +19784,10 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN141" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19827,14 +19827,14 @@
         <v>107</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19883,7 +19883,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19904,10 +19904,10 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN142" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19944,19 +19944,19 @@
         <v>94</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20005,7 +20005,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20026,10 +20026,10 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN143" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -20069,16 +20069,16 @@
         <v>107</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20127,7 +20127,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20148,10 +20148,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -20188,7 +20188,7 @@
         <v>94</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L145" t="s" s="2">
         <v>611</v>
@@ -20200,7 +20200,7 @@
         <v>613</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20225,7 +20225,7 @@
         <v>82</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="Y145" t="s" s="2">
         <v>614</v>
@@ -20237,7 +20237,7 @@
         <v>82</v>
       </c>
       <c r="AB145" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC145" s="2"/>
       <c r="AD145" t="s" s="2">
@@ -20268,16 +20268,16 @@
         <v>617</v>
       </c>
       <c r="AM145" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN145" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN145" t="s" s="2">
+      <c r="AO145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP145" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP145" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="146" hidden="true">
@@ -20705,7 +20705,7 @@
         <v>82</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y149" t="s" s="2">
         <v>683</v>
@@ -21152,7 +21152,7 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>619</v>
@@ -21164,7 +21164,7 @@
         <v>621</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21192,10 +21192,10 @@
         <v>155</v>
       </c>
       <c r="Y153" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z153" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>82</v>
@@ -21237,7 +21237,7 @@
         <v>196</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21255,7 +21255,7 @@
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21274,19 +21274,19 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21317,7 +21317,7 @@
         <v>624</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>82</v>
@@ -21353,19 +21353,19 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM154" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM154" t="s" s="2">
+      <c r="AN154" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN154" t="s" s="2">
+      <c r="AO154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP154" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP154" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="155" hidden="true">
@@ -21892,7 +21892,7 @@
         <v>117</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22002,7 +22002,7 @@
         <v>94</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>604</v>
@@ -22042,10 +22042,10 @@
         <v>155</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z160" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22084,13 +22084,13 @@
         <v>608</v>
       </c>
       <c r="AM160" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN160" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN160" t="s" s="2">
+      <c r="AO160" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22365,16 +22365,16 @@
         <v>151</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22411,7 +22411,7 @@
         <v>82</v>
       </c>
       <c r="AB163" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC163" s="2"/>
       <c r="AD163" t="s" s="2">
@@ -22421,7 +22421,7 @@
         <v>120</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22442,10 +22442,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN163" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22487,16 +22487,16 @@
         <v>151</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22545,7 +22545,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22566,10 +22566,10 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN164" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22847,23 +22847,23 @@
         <v>135</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>82</v>
@@ -22905,7 +22905,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22926,10 +22926,10 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN167" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22969,13 +22969,13 @@
         <v>107</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M168" t="s" s="2">
+      <c r="N168" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
@@ -23025,7 +23025,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23046,10 +23046,10 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN168" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -23096,7 +23096,7 @@
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23145,7 +23145,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23166,10 +23166,10 @@
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN169" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23209,14 +23209,14 @@
         <v>107</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23265,7 +23265,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23286,10 +23286,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN170" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN170" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23326,19 +23326,19 @@
         <v>94</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23387,7 +23387,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23408,10 +23408,10 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN171" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN171" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23451,16 +23451,16 @@
         <v>107</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23509,7 +23509,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23530,10 +23530,10 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN172" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN172" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
@@ -23582,7 +23582,7 @@
         <v>613</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23607,7 +23607,7 @@
         <v>82</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="Y173" t="s" s="2">
         <v>614</v>
@@ -23652,16 +23652,16 @@
         <v>617</v>
       </c>
       <c r="AM173" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN173" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN173" t="s" s="2">
+      <c r="AO173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP173" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO173" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP173" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="174" hidden="true">
@@ -23692,7 +23692,7 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L174" t="s" s="2">
         <v>619</v>
@@ -23704,7 +23704,7 @@
         <v>621</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -23732,10 +23732,10 @@
         <v>155</v>
       </c>
       <c r="Y174" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z174" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23777,7 +23777,7 @@
         <v>196</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -23814,19 +23814,19 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N175" t="s" s="2">
+      <c r="O175" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23857,7 +23857,7 @@
         <v>624</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23893,19 +23893,19 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM175" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM175" t="s" s="2">
+      <c r="AN175" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN175" t="s" s="2">
+      <c r="AO175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP175" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP175" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="176" hidden="true">
